--- a/feedback_forms/testing_versions/standard/generic_operator_feedback_v002_test_02_bad_data.xlsx
+++ b/feedback_forms/testing_versions/standard/generic_operator_feedback_v002_test_02_bad_data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\testing_versions\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5F165A-64C3-4F55-BDB0-93DFEEADAC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EB1EE9-1919-45E3-890E-E5AA943674A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="YolAQ5HaYdNBmGkU+s5Xlk/YEZV8evpaGiEPBvD+BdoTIEIywQSdLhqIU1v31lPHE7T+bj3MO1q5cQnR4V8uCQ==" workbookSaltValue="dFvh9ANB9KKRkw47okP0Vg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3927" yWindow="1360" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="6017" yWindow="3669" windowWidth="21729" windowHeight="13260" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -2578,19 +2578,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.07421875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="65.69140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.69140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="65.69140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.07421875" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2626,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
@@ -2635,7 +2637,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2644,13 +2646,13 @@
       <c r="E3" s="21"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="2:33" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -2686,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -2720,12 +2722,12 @@
       <c r="AF6" s="45"/>
       <c r="AG6" s="45"/>
     </row>
-    <row r="7" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG7" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="46" t="s">
         <v>3</v>
       </c>
@@ -2734,7 +2736,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="40"/>
     </row>
-    <row r="9" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="26" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
@@ -2743,7 +2745,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="40"/>
     </row>
-    <row r="10" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="26" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="48" t="s">
         <v>5</v>
       </c>
@@ -2752,7 +2754,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="40"/>
     </row>
-    <row r="11" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="26" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="49" t="s">
         <v>6</v>
       </c>
@@ -2761,7 +2763,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B12" s="46" t="s">
         <v>7</v>
       </c>
@@ -2770,7 +2772,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="40"/>
     </row>
-    <row r="13" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B13" s="46" t="s">
         <v>8</v>
       </c>
@@ -2779,7 +2781,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="40"/>
     </row>
-    <row r="14" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B14" s="46" t="s">
         <v>9</v>
       </c>
@@ -2788,7 +2790,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="40"/>
     </row>
-    <row r="15" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B15" s="46" t="s">
         <v>10</v>
       </c>
@@ -2797,7 +2799,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="40"/>
     </row>
-    <row r="16" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B16" s="46" t="s">
         <v>11</v>
       </c>
@@ -2806,7 +2808,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="40"/>
     </row>
-    <row r="17" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B17" s="46" t="s">
         <v>12</v>
       </c>
@@ -2815,7 +2817,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="40"/>
     </row>
-    <row r="18" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B18" s="50" t="s">
         <v>13</v>
       </c>
@@ -2824,12 +2826,12 @@
       <c r="E18" s="25"/>
       <c r="F18" s="40"/>
     </row>
-    <row r="20" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG20" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
@@ -2863,23 +2865,23 @@
       <c r="AF21" s="45"/>
       <c r="AG21" s="45"/>
     </row>
-    <row r="22" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG22" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B23" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="55">
-        <v>2022</v>
+        <v>1002022</v>
       </c>
       <c r="E23" s="46"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B24" s="46" t="s">
         <v>15</v>
       </c>
@@ -2889,7 +2891,7 @@
       </c>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B25" s="46" t="s">
         <v>16</v>
       </c>
@@ -2899,7 +2901,7 @@
       </c>
       <c r="E25" s="25"/>
     </row>
-    <row r="26" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B26" s="46" t="s">
         <v>17</v>
       </c>
@@ -2910,7 +2912,7 @@
       <c r="E26" s="46"/>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B27" s="46" t="s">
         <v>18</v>
       </c>
@@ -2921,7 +2923,7 @@
       <c r="E27" s="46"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B28" s="46" t="s">
         <v>19</v>
       </c>
@@ -2933,12 +2935,12 @@
       <c r="F28" s="40"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG29" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -2972,12 +2974,12 @@
       <c r="AF30" s="45"/>
       <c r="AG30" s="45"/>
     </row>
-    <row r="31" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG31" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B32" s="40" t="s">
         <v>20</v>
       </c>
@@ -2988,7 +2990,7 @@
       <c r="E32" s="43"/>
       <c r="G32" s="26"/>
     </row>
-    <row r="33" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B33" s="40" t="s">
         <v>21</v>
       </c>
@@ -2999,7 +3001,7 @@
       <c r="E33" s="43"/>
       <c r="G33" s="26"/>
     </row>
-    <row r="34" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B34" s="40" t="s">
         <v>22</v>
       </c>
@@ -3010,7 +3012,7 @@
       <c r="E34" s="43"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B35" s="40" t="s">
         <v>23</v>
       </c>
@@ -3021,7 +3023,7 @@
       <c r="E35" s="43"/>
       <c r="G35" s="26"/>
     </row>
-    <row r="36" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B36" s="40" t="s">
         <v>24</v>
       </c>
@@ -3032,12 +3034,12 @@
       <c r="E36" s="43"/>
       <c r="G36" s="26"/>
     </row>
-    <row r="37" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG37" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
@@ -3071,12 +3073,12 @@
       <c r="AF38" s="45"/>
       <c r="AG38" s="45"/>
     </row>
-    <row r="39" spans="2:33" s="20" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:33" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AG39" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:33" s="10" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="40" t="s">
         <v>25</v>
       </c>
@@ -3086,7 +3088,7 @@
       </c>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:33" s="10" customFormat="1" ht="30.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B41" s="40" t="s">
         <v>27</v>
       </c>
@@ -3097,7 +3099,7 @@
       <c r="E41" s="27"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:33" s="10" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B42" s="28" t="s">
         <v>28</v>
       </c>
@@ -3107,7 +3109,7 @@
       </c>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="10" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B43" s="28" t="s">
         <v>29</v>
       </c>
@@ -3117,7 +3119,7 @@
       </c>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="10" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B44" s="28" t="s">
         <v>30</v>
       </c>
@@ -3127,12 +3129,12 @@
       </c>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG45" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
@@ -3166,13 +3168,13 @@
       <c r="AF46" s="45"/>
       <c r="AG46" s="45"/>
     </row>
-    <row r="47" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B47" s="40"/>
       <c r="AG47" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B48" s="28" t="s">
         <v>31</v>
       </c>
@@ -3184,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:33" s="10" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B49" s="35" t="s">
         <v>32</v>
       </c>
@@ -3195,7 +3197,7 @@
       <c r="E49" s="20"/>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="2:33" s="10" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:33" s="10" customFormat="1" ht="30.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="28" t="s">
         <v>33</v>
       </c>
@@ -3206,7 +3208,7 @@
       <c r="E50" s="20"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:33" s="10" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="42" t="s">
         <v>147</v>
       </c>
@@ -3217,7 +3219,7 @@
       <c r="E51" s="20"/>
       <c r="G51" s="26"/>
     </row>
-    <row r="52" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:33" s="10" customFormat="1" ht="45.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B52" s="52" t="s">
         <v>150</v>
       </c>
@@ -3228,12 +3230,12 @@
       <c r="E52" s="20"/>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
       <c r="D53" s="43"/>
     </row>
-    <row r="54" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:33" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
       <c r="D54" s="44"/>
@@ -3267,12 +3269,12 @@
       <c r="AF54" s="45"/>
       <c r="AG54" s="45"/>
     </row>
-    <row r="55" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG55" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B56" s="40" t="s">
         <v>34</v>
       </c>
@@ -3281,7 +3283,7 @@
       </c>
       <c r="G56" s="26"/>
     </row>
-    <row r="57" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B57" s="40" t="s">
         <v>35</v>
       </c>
@@ -3290,7 +3292,7 @@
       </c>
       <c r="G57" s="26"/>
     </row>
-    <row r="58" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B58" s="28" t="s">
         <v>36</v>
       </c>
@@ -3299,7 +3301,7 @@
       </c>
       <c r="G58" s="26"/>
     </row>
-    <row r="59" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B59" s="28" t="s">
         <v>37</v>
       </c>
@@ -3308,15 +3310,15 @@
       </c>
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B60" s="43"/>
       <c r="D60" s="29"/>
     </row>
-    <row r="61" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:33" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="63" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B63" s="28" t="s">
         <v>38</v>
       </c>
@@ -3369,19 +3371,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="10.64453125" customWidth="1"/>
-    <col min="4" max="4" width="80.64453125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="10.61328125" customWidth="1"/>
+    <col min="4" max="4" width="80.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3405,17 +3407,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>170</v>
       </c>
@@ -3426,7 +3428,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>172</v>
       </c>
@@ -3437,72 +3439,72 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" s="13"/>
       <c r="C13" s="53"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" s="13"/>
       <c r="C15" s="53"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3524,18 +3526,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="11" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
@@ -3543,7 +3545,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3557,7 +3559,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3565,15 +3567,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -3581,7 +3583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
@@ -3592,7 +3594,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
         <v>47</v>
       </c>
@@ -3603,7 +3605,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>49</v>
       </c>
@@ -3614,7 +3616,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13" t="s">
         <v>51</v>
       </c>
@@ -3625,15 +3627,15 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B14" s="10"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
         <v>53</v>
       </c>
@@ -3650,7 +3652,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -3664,7 +3666,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>54</v>
       </c>
@@ -3695,7 +3697,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B19" s="10">
         <v>1</v>
       </c>
@@ -3715,7 +3717,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="B20" s="10">
         <v>2</v>
       </c>
@@ -3735,7 +3737,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>3</v>
       </c>
@@ -3744,7 +3746,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>4</v>
       </c>
@@ -3753,7 +3755,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>5</v>
       </c>
@@ -3762,7 +3764,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>6</v>
       </c>
@@ -3771,7 +3773,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>7</v>
       </c>
@@ -3780,7 +3782,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>8</v>
       </c>
@@ -3789,7 +3791,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>9</v>
       </c>
@@ -3798,7 +3800,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>10</v>
       </c>
@@ -3807,7 +3809,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>11</v>
       </c>
@@ -3816,7 +3818,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>12</v>
       </c>
@@ -3825,7 +3827,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10">
         <v>13</v>
       </c>
@@ -3834,7 +3836,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10">
         <v>14</v>
       </c>
@@ -3843,7 +3845,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>15</v>
       </c>
@@ -3852,7 +3854,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>16</v>
       </c>
@@ -3861,7 +3863,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>17</v>
       </c>
@@ -3870,7 +3872,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="10">
         <v>18</v>
       </c>
@@ -3879,7 +3881,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="10">
         <v>19</v>
       </c>
@@ -3888,7 +3890,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10">
         <v>20</v>
       </c>
@@ -3897,7 +3899,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10">
         <v>21</v>
       </c>
@@ -3906,7 +3908,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10">
         <v>22</v>
       </c>
@@ -3915,7 +3917,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10">
         <v>23</v>
       </c>
@@ -3924,7 +3926,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10">
         <v>24</v>
       </c>
@@ -3933,7 +3935,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10">
         <v>25</v>
       </c>
@@ -3942,7 +3944,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10">
         <v>26</v>
       </c>
@@ -3951,7 +3953,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="10">
         <v>27</v>
       </c>
@@ -3960,7 +3962,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10">
         <v>28</v>
       </c>
@@ -3969,7 +3971,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10">
         <v>29</v>
       </c>
@@ -3978,7 +3980,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10">
         <v>30</v>
       </c>
@@ -3987,7 +3989,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" s="10">
         <v>31</v>
       </c>
@@ -3996,7 +3998,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B50" s="10">
         <v>32</v>
       </c>
@@ -4005,7 +4007,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10">
         <v>33</v>
       </c>
@@ -4014,7 +4016,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10">
         <v>34</v>
       </c>
@@ -4023,7 +4025,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10">
         <v>35</v>
       </c>
@@ -4032,7 +4034,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10">
         <v>36</v>
       </c>
@@ -4041,7 +4043,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10">
         <v>37</v>
       </c>
@@ -4050,7 +4052,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10">
         <v>38</v>
       </c>
@@ -4059,7 +4061,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B57" s="10">
         <v>39</v>
       </c>
@@ -4069,7 +4071,7 @@
       <c r="G57" s="13"/>
       <c r="L57" s="17"/>
     </row>
-    <row r="58" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="10">
         <v>40</v>
       </c>
@@ -4078,7 +4080,7 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="10">
         <v>41</v>
       </c>
@@ -4087,7 +4089,7 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B60" s="10">
         <v>42</v>
       </c>
@@ -4096,7 +4098,7 @@
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B61" s="10">
         <v>43</v>
       </c>
@@ -4105,7 +4107,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="10">
         <v>44</v>
       </c>
@@ -4114,7 +4116,7 @@
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="10">
         <v>45</v>
       </c>
@@ -4123,7 +4125,7 @@
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" s="10">
         <v>46</v>
       </c>
@@ -4132,7 +4134,7 @@
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B65" s="10">
         <v>47</v>
       </c>
@@ -4141,7 +4143,7 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" s="10">
         <v>48</v>
       </c>
@@ -4150,7 +4152,7 @@
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="10">
         <v>49</v>
       </c>
@@ -4159,7 +4161,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B68" s="10">
         <v>50</v>
       </c>
@@ -4168,7 +4170,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10">
         <v>51</v>
       </c>
@@ -4177,7 +4179,7 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="10">
         <v>52</v>
       </c>
@@ -4186,7 +4188,7 @@
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" s="10">
         <v>53</v>
       </c>
@@ -4195,7 +4197,7 @@
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B72" s="10">
         <v>54</v>
       </c>
@@ -4204,7 +4206,7 @@
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B73" s="10">
         <v>55</v>
       </c>
@@ -4213,7 +4215,7 @@
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B74" s="10">
         <v>56</v>
       </c>
@@ -4222,7 +4224,7 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B75" s="10">
         <v>57</v>
       </c>
@@ -4231,7 +4233,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B76" s="10">
         <v>58</v>
       </c>
@@ -4240,7 +4242,7 @@
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B77" s="10">
         <v>59</v>
       </c>
@@ -4249,7 +4251,7 @@
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B78" s="10">
         <v>60</v>
       </c>
@@ -4258,7 +4260,7 @@
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B79" s="10">
         <v>61</v>
       </c>
@@ -4267,7 +4269,7 @@
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B80" s="10">
         <v>62</v>
       </c>
@@ -4276,7 +4278,7 @@
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B81" s="10">
         <v>63</v>
       </c>
@@ -4285,7 +4287,7 @@
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B82" s="10">
         <v>64</v>
       </c>
@@ -4294,7 +4296,7 @@
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
     </row>
-    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B83" s="10">
         <v>65</v>
       </c>
@@ -4303,7 +4305,7 @@
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="10">
         <v>66</v>
       </c>
@@ -4311,7 +4313,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B85" s="10">
         <v>67</v>
       </c>
@@ -4320,7 +4322,7 @@
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" s="10">
         <v>68</v>
       </c>
@@ -4329,7 +4331,7 @@
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B87" s="10">
         <v>69</v>
       </c>
@@ -4338,7 +4340,7 @@
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B88" s="10">
         <v>70</v>
       </c>
@@ -4347,7 +4349,7 @@
       <c r="F88" s="13"/>
       <c r="G88" s="36"/>
     </row>
-    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B89" s="10">
         <v>71</v>
       </c>
@@ -4356,7 +4358,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="36"/>
     </row>
-    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10">
         <v>72</v>
       </c>
@@ -4365,7 +4367,7 @@
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B91" s="10">
         <v>73</v>
       </c>
@@ -4374,7 +4376,7 @@
       <c r="F91" s="13"/>
       <c r="G91" s="36"/>
     </row>
-    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10">
         <v>74</v>
       </c>
@@ -4383,7 +4385,7 @@
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B93" s="10">
         <v>75</v>
       </c>
@@ -4392,7 +4394,7 @@
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="10">
         <v>76</v>
       </c>
@@ -4401,7 +4403,7 @@
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B95" s="10">
         <v>77</v>
       </c>
@@ -4410,7 +4412,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B96" s="10">
         <v>78</v>
       </c>
@@ -4419,7 +4421,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B97" s="10">
         <v>79</v>
       </c>
@@ -4428,7 +4430,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B98" s="10">
         <v>80</v>
       </c>
@@ -4437,7 +4439,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B99" s="10">
         <v>81</v>
       </c>
@@ -4446,7 +4448,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10">
         <v>82</v>
       </c>
@@ -4455,7 +4457,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
     </row>
-    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B101" s="10">
         <v>83</v>
       </c>
@@ -4464,7 +4466,7 @@
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
     </row>
-    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10">
         <v>84</v>
       </c>
@@ -4473,7 +4475,7 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
     </row>
-    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10">
         <v>85</v>
       </c>
@@ -4482,7 +4484,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="10">
         <v>86</v>
       </c>
@@ -4491,7 +4493,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="10">
         <v>87</v>
       </c>
@@ -4501,7 +4503,7 @@
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="10">
         <v>88</v>
       </c>
@@ -4511,7 +4513,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" s="10">
         <v>89</v>
       </c>
@@ -4521,7 +4523,7 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="10">
         <v>90</v>
       </c>
@@ -4531,7 +4533,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="10">
         <v>91</v>
       </c>
@@ -4541,7 +4543,7 @@
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" s="10">
         <v>92</v>
       </c>
@@ -4551,7 +4553,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" s="10">
         <v>93</v>
       </c>
@@ -4560,7 +4562,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" s="10">
         <v>94</v>
       </c>
@@ -4570,7 +4572,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="10">
         <v>95</v>
       </c>
@@ -4580,7 +4582,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" s="10">
         <v>96</v>
       </c>
@@ -4590,7 +4592,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" s="10">
         <v>97</v>
       </c>
@@ -4600,7 +4602,7 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" s="10">
         <v>98</v>
       </c>
@@ -4610,7 +4612,7 @@
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="10">
         <v>99</v>
       </c>
@@ -4620,7 +4622,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" s="10">
         <v>100</v>
       </c>
@@ -4653,21 +4655,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1171875" customWidth="1"/>
-    <col min="4" max="5" width="16.703125" customWidth="1"/>
-    <col min="6" max="17" width="16.703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="92.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.07421875" customWidth="1"/>
+    <col min="4" max="5" width="16.69140625" customWidth="1"/>
+    <col min="6" max="17" width="16.69140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="38" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="38" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4687,7 +4689,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4706,7 +4708,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4725,7 +4727,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -4738,7 +4740,7 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -4751,91 +4753,91 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="10" spans="1:17" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:7" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G33"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
@@ -4844,12 +4846,12 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>26</v>
       </c>
@@ -4859,7 +4861,7 @@
       </c>
       <c r="G36"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:B39">_carb_only_table_02[]</f>
         <v>Operator was aware of the leak prior to receiving the CARB plume notification</v>
@@ -4869,7 +4871,7 @@
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" t="str">
         <v>Operator detected a leak during follow-up monitoring after receipt of the CARB plume notification</v>
       </c>
@@ -4878,7 +4880,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" t="str">
         <v>No leak was detected</v>
       </c>
@@ -4887,18 +4889,18 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G40"/>
     </row>
-    <row r="42" spans="2:7" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:7" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="39" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G43"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="7" t="s">
         <v>77</v>
       </c>
@@ -4907,12 +4909,12 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>26</v>
       </c>
@@ -4922,7 +4924,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47:B51">_carb_only_table_03[]</f>
         <v>Not applicable as no leak was detected</v>
@@ -4932,7 +4934,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" t="str">
         <v>Operator was aware of the leak prior to receiving the notification, and/or repairs were in progress on the date of the plume observation</v>
       </c>
@@ -4941,7 +4943,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" t="str">
         <v>An unintentional leak  (i.e., the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -4950,7 +4952,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" t="str">
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
@@ -4958,7 +4960,7 @@
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" t="str">
         <v>Due to a temporary activity (i.e., would be resolved without corrective action when the activity is complete)</v>
       </c>
@@ -4987,19 +4989,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
+    <col min="4" max="9" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -5015,7 +5017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5023,7 +5025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -5031,7 +5033,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -5039,7 +5041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -5062,18 +5064,18 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5097,7 +5099,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -5105,12 +5107,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>92</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -5150,24 +5152,24 @@
       <selection activeCell="A11" sqref="A11:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="25.1171875" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" customWidth="1"/>
-    <col min="4" max="4" width="32.41015625" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="25.07421875" customWidth="1"/>
+    <col min="3" max="3" width="16.3828125" customWidth="1"/>
+    <col min="4" max="4" width="32.3828125" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="12"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5177,26 +5179,26 @@
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="5" t="s">
         <v>84</v>
       </c>
@@ -5213,7 +5215,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -5227,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -5241,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>86</v>
       </c>
@@ -5255,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -5269,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -5297,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -5314,7 +5316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -5328,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -5356,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -5370,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>86</v>
       </c>
@@ -5384,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>86</v>
       </c>
@@ -5398,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>86</v>
       </c>
@@ -5412,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>86</v>
       </c>
@@ -5426,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -5440,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>86</v>
       </c>
@@ -5454,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -5468,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>86</v>
       </c>
@@ -5482,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>86</v>
       </c>
@@ -5527,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>86</v>
       </c>
@@ -5541,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>86</v>
       </c>
@@ -5555,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>86</v>
       </c>
@@ -5569,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>86</v>
       </c>
@@ -5583,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -5609,6 +5611,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -5843,27 +5865,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5882,25 +5903,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>
